--- a/sol_vs_evm.xlsx
+++ b/sol_vs_evm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/sol-playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D6624E-DF77-8D4C-BCB9-51568D09CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ECB936-CFAF-F14C-841C-40115BF835E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -394,16 +394,10 @@
     <t>geth</t>
   </si>
   <si>
-    <t>keosd</t>
-  </si>
-  <si>
     <t>keystore</t>
   </si>
   <si>
     <t>for signing a txn</t>
-  </si>
-  <si>
-    <t>encrypted with wallet password</t>
   </si>
   <si>
     <t xml:space="preserve">encrypted with wallet password, mnemonic, </t>
@@ -476,13 +470,19 @@
   </si>
   <si>
     <t>used to see the instructions/functions inside a contract, not the logic inside.</t>
+  </si>
+  <si>
+    <t>/Users/abhi3700/.config/solana/id.json</t>
+  </si>
+  <si>
+    <t>encrypted with wallet passphrase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +532,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -569,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -590,6 +595,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1101,7 +1109,7 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>90</v>
@@ -1115,22 +1123,22 @@
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1406,52 +1414,52 @@
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>

--- a/sol_vs_evm.xlsx
+++ b/sol_vs_evm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/sol-playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ECB936-CFAF-F14C-841C-40115BF835E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB7A6E4-90E8-D34E-B495-6DF4674FDCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>contract's method accepts token payment</t>
   </si>
   <si>
-    <t>uint32_t</t>
-  </si>
-  <si>
     <t>bytes32</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t>token standard</t>
-  </si>
-  <si>
-    <t>EOSIO token</t>
   </si>
   <si>
     <t>ERC20</t>
@@ -247,10 +241,6 @@
   </si>
   <si>
     <t>Types of accounts</t>
-  </si>
-  <si>
-    <t>1. User account
-2. Contract account</t>
   </si>
   <si>
     <t>1. Externally Owned account
@@ -388,9 +378,6 @@
 https://gist.github.com/0mkara/b953cc2585b18ee098cd</t>
   </si>
   <si>
-    <t>nodeos</t>
-  </si>
-  <si>
     <t>geth</t>
   </si>
   <si>
@@ -476,6 +463,19 @@
   </si>
   <si>
     <t>encrypted with wallet passphrase</t>
+  </si>
+  <si>
+    <t>test-ledger/</t>
+  </si>
+  <si>
+    <t>1. Account
+2. Program</t>
+  </si>
+  <si>
+    <t>u32</t>
+  </si>
+  <si>
+    <t>Token program</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,88 +1034,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
@@ -1123,22 +1123,22 @@
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="6"/>
@@ -1227,89 +1227,89 @@
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="6"/>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="6"/>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="6"/>
@@ -1345,121 +1345,121 @@
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="E19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="F24" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>

--- a/sol_vs_evm.xlsx
+++ b/sol_vs_evm.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/sol-playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB7A6E4-90E8-D34E-B495-6DF4674FDCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD40CDF1-8A51-344E-A389-51F7C54D666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14420" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>Description</t>
   </si>
@@ -477,12 +486,40 @@
   <si>
     <t>Token program</t>
   </si>
+  <si>
+    <t>Node hardware</t>
+  </si>
+  <si>
+    <t>Multi-core support. 
+Easy to parallelize transactions.</t>
+  </si>
+  <si>
+    <t>Run as node</t>
+  </si>
+  <si>
+    <t>Consumer level support i.e. can be run on any hardware including mobile phone (low computing device)</t>
+  </si>
+  <si>
+    <t>Source: https://solana.wiki/zh-cn/docs/ethereum-comparison/</t>
+  </si>
+  <si>
+    <t>Data storage</t>
+  </si>
+  <si>
+    <t>on smart contract account</t>
+  </si>
+  <si>
+    <t>not on program account, but on PDA</t>
+  </si>
+  <si>
+    <t>This separation is to lessen the burden of executing a contract &amp; enable parallelization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +574,11 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -574,31 +616,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,14 +669,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>340646</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>196114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>349646</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>196114</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198274</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -648,7 +693,7 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="9016560" y="9035314"/>
+            <a:off x="9977050" y="9921640"/>
             <a:ext cx="9000" cy="2160"/>
           </xdr14:xfrm>
         </xdr:contentPart>
@@ -1012,21 +1057,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1049,430 +1094,466 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="25" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}"/>
+  <autoFilter ref="A1:F25" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}"/>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{097BD82B-43D0-478B-A616-A3D0ED0E8BD4}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{BC7E8774-8200-4B94-B8CC-23F9BC4821B0}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{62F04013-DE01-4572-A1DD-4EEF9F2C8F72}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{256ACFD2-13C0-4F91-80D3-9F69465C5166}"/>
-    <hyperlink ref="E3" r:id="rId5" xr:uid="{61BEC854-3B83-4713-B7FF-F1A0968C3D5D}"/>
-    <hyperlink ref="F3" r:id="rId6" xr:uid="{06C0BDFE-EDC1-44F2-ADA1-1B791EA4D6C7}"/>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{097BD82B-43D0-478B-A616-A3D0ED0E8BD4}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{BC7E8774-8200-4B94-B8CC-23F9BC4821B0}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{62F04013-DE01-4572-A1DD-4EEF9F2C8F72}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{256ACFD2-13C0-4F91-80D3-9F69465C5166}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{61BEC854-3B83-4713-B7FF-F1A0968C3D5D}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{06C0BDFE-EDC1-44F2-ADA1-1B791EA4D6C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/sol_vs_evm.xlsx
+++ b/sol_vs_evm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/sol-playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD40CDF1-8A51-344E-A389-51F7C54D666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A28AA-D138-7A42-B9FA-BF388578871B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14420" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15480" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="130">
   <si>
     <t>Description</t>
   </si>
@@ -513,6 +513,18 @@
   </si>
   <si>
     <t>This separation is to lessen the burden of executing a contract &amp; enable parallelization</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Foundry, Hardhat, Brownie, Truffle</t>
+  </si>
+  <si>
+    <t>Anchor</t>
+  </si>
+  <si>
+    <t>to init a SC project</t>
   </si>
 </sst>
 </file>
@@ -616,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -640,9 +652,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1057,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="114" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1247,7 @@
       <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1544,6 +1553,62 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F25" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}"/>
